--- a/data/trans_dic/P1409-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1409-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006438949813771304</v>
+        <v>0.006636233152079011</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007429477023099687</v>
+        <v>0.007435544090088671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0196413178136752</v>
+        <v>0.0197800285764631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006298547827506234</v>
+        <v>0.003606158208334769</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0137083504192125</v>
+        <v>0.01348334874452491</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03164524969711149</v>
+        <v>0.03024392649195932</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008754201527526791</v>
+        <v>0.007777279002852992</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01336360553943598</v>
+        <v>0.01371384481168979</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02923732202239388</v>
+        <v>0.02888992553719447</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03099655607364565</v>
+        <v>0.03228733065844887</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03761460722268076</v>
+        <v>0.03770100786676633</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05177200399591402</v>
+        <v>0.05181805666392626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04619891596417243</v>
+        <v>0.03923703940489128</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04849238715931528</v>
+        <v>0.05133811719828441</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06248022479737229</v>
+        <v>0.06235025958798687</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02785412924427109</v>
+        <v>0.02805752831076412</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03750736086640684</v>
+        <v>0.03503152000894613</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05180312491894191</v>
+        <v>0.05131990314295352</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.02557300288274776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04194254391559258</v>
+        <v>0.04194254391559257</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.03999733538629321</v>
@@ -764,7 +764,7 @@
         <v>0.04546938491219148</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.06383923211407619</v>
+        <v>0.0638392321140762</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.02622311910105789</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004939485100999015</v>
+        <v>0.004996268941373317</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01272386201596575</v>
+        <v>0.01259079742869576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02500842562634388</v>
+        <v>0.02429252808849711</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02272875633417968</v>
+        <v>0.02317256831504799</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.029141585871168</v>
+        <v>0.02867392822157061</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04564120546166226</v>
+        <v>0.04615132407766041</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01580056559327457</v>
+        <v>0.01568916805552612</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02467006747647554</v>
+        <v>0.02348928269334522</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03817300483332327</v>
+        <v>0.03898413983981213</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03988830030023869</v>
+        <v>0.03840521223349988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04854484411435524</v>
+        <v>0.04817104166048114</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06831219851518334</v>
+        <v>0.0669029468638916</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06904656320485816</v>
+        <v>0.0702335199175944</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07033739617363811</v>
+        <v>0.0701098112301046</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08588441127701078</v>
+        <v>0.0852459548959045</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04387275398115922</v>
+        <v>0.04220058807306418</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05137930648321544</v>
+        <v>0.05160744351532916</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06820373522119558</v>
+        <v>0.06734467797255263</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009007466124413046</v>
+        <v>0.009278386859861426</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008618725145133503</v>
+        <v>0.008343485043661482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01555442187197992</v>
+        <v>0.01562243394542965</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01144066296650869</v>
+        <v>0.01089764668211106</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006623243545156115</v>
+        <v>0.00640499604233958</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02198697566038162</v>
+        <v>0.02297319223269199</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01234152083162067</v>
+        <v>0.01241277954476248</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01066372768057697</v>
+        <v>0.01026951021284265</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02019470691236966</v>
+        <v>0.02031271027391065</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02987940996296208</v>
+        <v>0.03184924017333746</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0330272324884124</v>
+        <v>0.03104107748368418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0486404394447341</v>
+        <v>0.0491729764256358</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0632290852718996</v>
+        <v>0.05631825068111167</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07480409764702182</v>
+        <v>0.06972605249950056</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.068611648224843</v>
+        <v>0.06583283886577919</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03243821046636419</v>
+        <v>0.03108596294703544</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03504599957916645</v>
+        <v>0.03415607559213367</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04820007041406085</v>
+        <v>0.04690794918696716</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01303231091857224</v>
+        <v>0.0128655328752975</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01395251858686493</v>
+        <v>0.01388104265975027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0274638260601429</v>
+        <v>0.02637389946532764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01683357398463561</v>
+        <v>0.01642089874219126</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02005184430521374</v>
+        <v>0.02053108225898558</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03435547980858655</v>
+        <v>0.03475062556126397</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0163456245381432</v>
+        <v>0.01631123823270128</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01887513510779776</v>
+        <v>0.01969500347221021</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03322180022782101</v>
+        <v>0.03357199026615547</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03044404117729526</v>
+        <v>0.03110886929710684</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0308761881156879</v>
+        <v>0.03128878327227291</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0539706571373206</v>
+        <v>0.05233017042025929</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04157136413727853</v>
+        <v>0.04099321886958641</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04409819463798202</v>
+        <v>0.04583203562315499</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05919876871182168</v>
+        <v>0.06101892765513333</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03132578014269132</v>
+        <v>0.03129466137761674</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03340554628692106</v>
+        <v>0.03391850486138791</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05139251753032437</v>
+        <v>0.05196861026194656</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.05272320908660091</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.05012705951719241</v>
+        <v>0.05012705951719239</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.02684163685011452</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0115741855934011</v>
+        <v>0.01169298196939042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02171180001208453</v>
+        <v>0.02214143990728781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03569724115419368</v>
+        <v>0.03382309772978898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01854254681070786</v>
+        <v>0.01985326901161107</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03875478702007634</v>
+        <v>0.0379758178102195</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03982980447154032</v>
+        <v>0.04019384039940486</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01921393016930988</v>
+        <v>0.01790456371757123</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03371204977003296</v>
+        <v>0.03501700981834296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04096416177045352</v>
+        <v>0.04174335271504731</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03783935737196237</v>
+        <v>0.03756279608522156</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05252928203664096</v>
+        <v>0.051403201691451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08250119288993391</v>
+        <v>0.07860856278999716</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04627871988123357</v>
+        <v>0.04717478830503014</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07293883369159988</v>
+        <v>0.07144788633591095</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06395100621725856</v>
+        <v>0.06365688573559693</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0383203681648512</v>
+        <v>0.0368060169745175</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05714501484231003</v>
+        <v>0.05793004621922369</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06343611446118134</v>
+        <v>0.06484458989685116</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01055291450820155</v>
+        <v>0.01062944432584084</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02525074575670025</v>
+        <v>0.0246437111357677</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00221584538188397</v>
+        <v>0.002278611647963003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01651621662996149</v>
+        <v>0.01642655398313746</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02758528144175287</v>
+        <v>0.02819588871737314</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03154923046371765</v>
+        <v>0.03197048429372364</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01714433832993789</v>
+        <v>0.01697675644586971</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03178327852373723</v>
+        <v>0.0309971098031835</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02959195608460128</v>
+        <v>0.03014986742504338</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05166832623325853</v>
+        <v>0.05178223737683317</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08007579215102723</v>
+        <v>0.07529815039844076</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1147000657401587</v>
+        <v>0.1046406440768862</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03559193665178913</v>
+        <v>0.03584420689001383</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.054571703803409</v>
+        <v>0.05412969640894073</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05748179691479639</v>
+        <v>0.05592604642844908</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03292930816059302</v>
+        <v>0.0337209897744522</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0549337336588458</v>
+        <v>0.05222369169214085</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05713596145420105</v>
+        <v>0.06026680594528906</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.02545533662949302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03865887264936646</v>
+        <v>0.03865887264936645</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.02712568078871614</v>
@@ -1309,7 +1309,7 @@
         <v>0.03913709904652709</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.04776767586341313</v>
+        <v>0.04776767586341312</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.02319314451040157</v>
@@ -1318,7 +1318,7 @@
         <v>0.0324404796226959</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.04333658787662628</v>
+        <v>0.04333658787662627</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01453605289990812</v>
+        <v>0.01455257670335057</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02073961236344309</v>
+        <v>0.02050766688005118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0310800794214819</v>
+        <v>0.03181806116889916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02221167736697129</v>
+        <v>0.02209937684433022</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03307241016769193</v>
+        <v>0.03299414912132293</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04236453045120016</v>
+        <v>0.04185290938118535</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01953363567658294</v>
+        <v>0.01964539342597777</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02848401337994184</v>
+        <v>0.02854074210533305</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03870829458226947</v>
+        <v>0.03882805921903794</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02412054190904282</v>
+        <v>0.02421196170016783</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03146024080801835</v>
+        <v>0.03124125312215065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04763318286511642</v>
+        <v>0.04808283597194608</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03352027171645662</v>
+        <v>0.03330280398614644</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04668575359866898</v>
+        <v>0.04666851429283316</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05436887245849314</v>
+        <v>0.05380150682596735</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02706850664280759</v>
+        <v>0.02717649033712182</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03706697198603386</v>
+        <v>0.03693145704992981</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04834203989701828</v>
+        <v>0.04856313211641064</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2815</v>
+        <v>2901</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10815</v>
+        <v>10891</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1981</v>
+        <v>1134</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4758</v>
+        <v>4679</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15456</v>
+        <v>14771</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6580</v>
+        <v>5846</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10372</v>
+        <v>10644</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30378</v>
+        <v>30017</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13552</v>
+        <v>14116</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16140</v>
+        <v>16177</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28507</v>
+        <v>28532</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14527</v>
+        <v>12338</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16830</v>
+        <v>17817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30516</v>
+        <v>30453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20937</v>
+        <v>21090</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29111</v>
+        <v>27190</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>53825</v>
+        <v>53323</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2069</v>
+        <v>2092</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4800</v>
+        <v>4750</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12084</v>
+        <v>11738</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7683</v>
+        <v>7833</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10849</v>
+        <v>10675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19283</v>
+        <v>19499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11958</v>
+        <v>11874</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>18490</v>
+        <v>17605</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34573</v>
+        <v>35308</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16705</v>
+        <v>16084</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18312</v>
+        <v>18171</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33009</v>
+        <v>32328</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23338</v>
+        <v>23740</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26185</v>
+        <v>26100</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36285</v>
+        <v>36016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>33203</v>
+        <v>31938</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38509</v>
+        <v>38680</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>61772</v>
+        <v>60994</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5669</v>
+        <v>5840</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4498</v>
+        <v>4355</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7322</v>
+        <v>7354</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2976</v>
+        <v>2835</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4122</v>
+        <v>4307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10978</v>
+        <v>11042</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7337</v>
+        <v>7066</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13293</v>
+        <v>13371</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18807</v>
+        <v>20046</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17237</v>
+        <v>16201</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22897</v>
+        <v>23148</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16448</v>
+        <v>14650</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12427</v>
+        <v>11583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12864</v>
+        <v>12343</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28855</v>
+        <v>27652</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24113</v>
+        <v>23501</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31727</v>
+        <v>30877</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15105</v>
+        <v>14911</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16040</v>
+        <v>15958</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31085</v>
+        <v>29851</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12873</v>
+        <v>12557</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16560</v>
+        <v>16956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29572</v>
+        <v>29912</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31445</v>
+        <v>31378</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37288</v>
+        <v>38908</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>66198</v>
+        <v>66896</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35285</v>
+        <v>36055</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35496</v>
+        <v>35971</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61086</v>
+        <v>59230</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31791</v>
+        <v>31348</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36420</v>
+        <v>37852</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50956</v>
+        <v>52522</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>60262</v>
+        <v>60203</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>65993</v>
+        <v>67006</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>102405</v>
+        <v>103553</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5910</v>
+        <v>5970</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13477</v>
+        <v>13743</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20190</v>
+        <v>19130</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14097</v>
+        <v>15093</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28610</v>
+        <v>28035</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>33015</v>
+        <v>33317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>24418</v>
+        <v>22754</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45813</v>
+        <v>47586</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>57124</v>
+        <v>58210</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19321</v>
+        <v>19179</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32605</v>
+        <v>31906</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46661</v>
+        <v>44459</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35183</v>
+        <v>35864</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53847</v>
+        <v>52746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>53009</v>
+        <v>52765</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>48699</v>
+        <v>46775</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>77657</v>
+        <v>78724</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>88460</v>
+        <v>90425</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2816</v>
+        <v>2837</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7251</v>
+        <v>7076</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18303</v>
+        <v>18203</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>29848</v>
+        <v>30509</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>26583</v>
+        <v>26938</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>23574</v>
+        <v>23344</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>43517</v>
+        <v>42440</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>31954</v>
+        <v>32556</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13789</v>
+        <v>13820</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22993</v>
+        <v>21621</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>27210</v>
+        <v>24824</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>39442</v>
+        <v>39721</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>59048</v>
+        <v>58570</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>48433</v>
+        <v>47122</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>45279</v>
+        <v>46368</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>75214</v>
+        <v>71503</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>61696</v>
+        <v>65077</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>49741</v>
+        <v>49798</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>70219</v>
+        <v>69433</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>106891</v>
+        <v>109429</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>78757</v>
+        <v>78358</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>116798</v>
+        <v>116522</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>153810</v>
+        <v>151953</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>136103</v>
+        <v>136882</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>197033</v>
+        <v>197425</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>273662</v>
+        <v>274509</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>82538</v>
+        <v>82851</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>106516</v>
+        <v>105774</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>163821</v>
+        <v>165368</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>118854</v>
+        <v>118083</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>164875</v>
+        <v>164814</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>197394</v>
+        <v>195334</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>188604</v>
+        <v>189356</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>256404</v>
+        <v>255467</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>341772</v>
+        <v>343335</v>
       </c>
     </row>
     <row r="32">
